--- a/统计汇总/汇总表.xlsx
+++ b/统计汇总/汇总表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13275" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="方案" sheetId="1" r:id="rId1"/>
     <sheet name="数据集情况" sheetId="2" r:id="rId2"/>
     <sheet name="预测结果" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>数据</t>
   </si>
@@ -45,13 +46,16 @@
     <t>robotics</t>
   </si>
   <si>
+    <t>测试集</t>
+  </si>
+  <si>
     <t>方法</t>
   </si>
   <si>
+    <t>字段</t>
+  </si>
+  <si>
     <t>数据集验证</t>
-  </si>
-  <si>
-    <t>测试集</t>
   </si>
   <si>
     <r>
@@ -93,6 +97,9 @@
     </r>
   </si>
   <si>
+    <t>title，content</t>
+  </si>
+  <si>
     <r>
       <t>词频</t>
     </r>
@@ -268,6 +275,54 @@
       </rPr>
       <t>）</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Top4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>上警（竞选）</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>发言</t>
+  </si>
+  <si>
+    <t>女巫</t>
   </si>
 </sst>
 </file>
@@ -281,7 +336,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,14 +350,33 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <charset val="134"/>
     </font>
     <font>
@@ -481,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,12 +761,191 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,187 +1066,340 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1451,10 +1863,10 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11"/>
+      <c r="A1" s="62"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1466,94 +1878,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5904761904762" customWidth="1"/>
     <col min="2" max="2" width="11.752380952381" customWidth="1"/>
     <col min="3" max="3" width="19.352380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="57" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="59">
         <v>19279</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="59">
         <v>36762</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="59">
         <v>13196</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="59">
         <v>31170</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="59">
         <v>15404</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="59">
         <v>24178</v>
       </c>
     </row>
     <row r="5" ht="12.75" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="59">
         <v>10432</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="59">
         <v>26355</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="59">
         <v>25918</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="59">
         <v>29948</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="59">
         <v>2771</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="59">
         <v>14948</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="60"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:3">
+      <c r="A9" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="59">
+        <v>61895</v>
       </c>
     </row>
   </sheetData>
@@ -1565,195 +1988,495 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.9333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.2380952380952" customWidth="1"/>
-    <col min="3" max="3" width="10.0285714285714" customWidth="1"/>
-    <col min="4" max="5" width="12"/>
-    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="10.5904761904762" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286"/>
+    <col min="1" max="2" width="16.9333333333333" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.2380952380952" customWidth="1"/>
+    <col min="4" max="4" width="10.0285714285714" customWidth="1"/>
+    <col min="5" max="6" width="12"/>
+    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="10.5904761904762" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="50" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A1" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="12.75" spans="2:7">
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" s="51" customFormat="1" ht="13.5" spans="3:8">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="54">
         <v>0.064238</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="54">
         <v>0.260019</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="54">
         <v>0.089984</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="54">
         <v>0.163501</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="54">
         <v>0.115819</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="54">
         <v>0.129986</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="56">
         <v>0.06443</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="55">
         <v>0.066655</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="55">
         <v>0.251605</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="55">
         <v>0.105839</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="55">
         <v>0.170838</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="54">
         <v>0.117786</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="55">
         <v>0.1387</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="56">
         <v>0.06906</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="13.5" spans="1:8">
+      <c r="A5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="55">
         <v>0.06523</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="55">
         <v>0.235962</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="55">
         <v>0.108237</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="55">
         <v>0.167209</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="55">
         <v>0.116206</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="55">
         <v>0.145045</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6">
+    <row r="6" ht="13.5" spans="1:8">
+      <c r="A6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="55">
         <v>0.1457</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="13.5" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="7" ht="13.5" spans="1:8">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:8">
+      <c r="A8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="55">
         <v>0.052873</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="55">
         <v>0.230327</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="55">
         <v>0.072305</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="55">
         <v>0.143441</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="55">
         <v>0.077175</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="55">
         <v>0.117675</v>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="55">
         <v>0.057464</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="55">
         <v>0.232082</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="55">
         <v>0.081154</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="55">
         <v>0.152897</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="55">
         <v>0.086726</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="55">
         <v>0.134099</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="55">
+        <v>0.058293</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.222426</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.084581</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.151595</v>
+      </c>
+      <c r="G10" s="55">
+        <v>0.093127</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0.138928</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0.06253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.2" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.60952380952381" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.42857142857143" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7238095238095" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.4571428571429" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.352380952381" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.3619047619048" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.8666666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.9809523809524" style="5" customWidth="1"/>
+    <col min="9" max="16382" width="22.2" style="5" customWidth="1"/>
+    <col min="16383" max="16384" width="22.2" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="37" customHeight="1" spans="1:12">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" ht="54" customHeight="1" spans="1:12">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" ht="67" customHeight="1" spans="1:12">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="79" customHeight="1" spans="1:12">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="56" customHeight="1" spans="1:12">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="57" customHeight="1" spans="1:12">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="53" customHeight="1" spans="1:12">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="45" customHeight="1" spans="1:12">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="43" customHeight="1" spans="1:12">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="47" customHeight="1" spans="1:12">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" ht="44" customHeight="1" spans="2:7">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" customHeight="1" spans="5:7">
+      <c r="E13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" customHeight="1" spans="5:7">
+      <c r="E14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:3">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:3">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:3">
+      <c r="C19" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
